--- a/File_Excel/commenti_per_notizia_cronaca.xlsx
+++ b/File_Excel/commenti_per_notizia_cronaca.xlsx
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
@@ -718,7 +718,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -844,7 +844,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22">
@@ -886,7 +886,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
@@ -928,7 +928,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26">
@@ -991,7 +991,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28">
@@ -1012,7 +1012,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
@@ -1054,7 +1054,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>199</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -1075,7 +1075,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>49</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -1117,7 +1117,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
@@ -1138,7 +1138,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35">
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
@@ -1201,7 +1201,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/File_Excel/commenti_per_notizia_cronaca.xlsx
+++ b/File_Excel/commenti_per_notizia_cronaca.xlsx
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -529,7 +529,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -571,7 +571,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>71</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>62</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>85</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -865,7 +865,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
@@ -1180,7 +1180,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37">
